--- a/boeing_technical_interchange/JPL Question Log.xlsx
+++ b/boeing_technical_interchange/JPL Question Log.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yh864c\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0306797\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="0" windowWidth="15360" windowHeight="8724"/>
+    <workbookView xWindow="6216" yWindow="0" windowWidth="9144" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Status">Sheet1!$I$12:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$24</definedName>
+    <definedName name="Status">Sheet1!$I$9:$I$10</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Why does Update not work from Magic Draw?</t>
   </si>
   <si>
-    <t xml:space="preserve">New </t>
-  </si>
-  <si>
     <t>In Work</t>
   </si>
   <si>
@@ -92,7 +90,127 @@
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">Block Specific Type (BTS) review next week. Will be in Service Pack Push.  </t>
+    <t>How does a user revert data to a prior version?</t>
+  </si>
+  <si>
+    <t>Query Engine</t>
+  </si>
+  <si>
+    <t>Added as an agenda item for 7/2 and invited Sandy</t>
+  </si>
+  <si>
+    <t>Why are you using teamwork server?</t>
+  </si>
+  <si>
+    <t>We noticed that you couldn’t see the model history or revert to prior models via EMS (or at least it isn’t mentioned in the user manual). Is there a way of doing this in EMS?</t>
+  </si>
+  <si>
+    <t>Per the user manual, it mentions that you have to perform the merge twice (once on EMS and another time on teamwork server). We see this as a potential problem and wonder if you have a best practice or a roadmap where you wouldn’t have to do the merge twice. Why not just allow model branches on EMS and get rid of teamwork server?</t>
+  </si>
+  <si>
+    <t>In magic draw, there is the baseline tag on the ModelManagementSystem stereotype. This tag doesn’t seem to do anything..can you explain the purpose? We thought that maybe you could use that stereotype to indicate MD branches and not have to use teamwork server..but that doesn’t seem to be the case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you do branching/merging </t>
+  </si>
+  <si>
+    <t>How do you do branching/merging with teamwork sever and Alfresco?</t>
+  </si>
+  <si>
+    <t>Document Generation: a. How do you generate a document within EMS? (github issue #14)</t>
+  </si>
+  <si>
+    <t>Document Generation: b. How do you generate a document from within Magic Draw?</t>
+  </si>
+  <si>
+    <t>Document Generation: c. Within MagicDraw the DocGen -&gt; Generate Document menu pick does not generate an XML file. (there isn’t a github issue related to this problem, but Greg E is familiar with the problem).</t>
+  </si>
+  <si>
+    <t>Change Management – Branching/Merging: a. Why are you using teamwork server?</t>
+  </si>
+  <si>
+    <t>Change Management – Branching/Merging: b. Per the user manual, it mentions that you have to perform the merge twice (once on EMS and another time on teamwork server). We see this as a potential problem and wonder if you have a best practice or a roadmap where you wouldn’t have to do the merge twice. Why not just allow model branches on EMS and get rid of teamwork server?</t>
+  </si>
+  <si>
+    <t>Change Management – Branching/Merging: c. We noticed that you couldn’t see the model history or revert to prior models via EMS (or at least it isn’t mentioned in the user manual). Is there a way of doing this in EMS or is that something you have to do in the teamwork server?</t>
+  </si>
+  <si>
+    <t>How are you running your advanced queries within Open MBEE?</t>
+  </si>
+  <si>
+    <t>Review github issue 17</t>
+  </si>
+  <si>
+    <t>Review github issue 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brittany </t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>What is the best way to load a large model? (e.g. xml data).</t>
+  </si>
+  <si>
+    <t>Make a tag for the area to examine. Edit the time stamp on the tag in order to move. Note: can't edit on web client.</t>
+  </si>
+  <si>
+    <t>Make a tag from document; see menu option; generate PDF. In addition, JPL (Chris Delp) to send instructions.</t>
+  </si>
+  <si>
+    <t>Ignore, this will be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MD local generation. Greg E to investigate.</t>
+  </si>
+  <si>
+    <t>Chris Delp</t>
+  </si>
+  <si>
+    <t>Send data file to JPL</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Refer to question (Change Management – Branching/Merging: a. Why are you using teamwork server?).</t>
+  </si>
+  <si>
+    <t>some data is not stored on MMS and vice-versa. Refer to question (Change Management – Branching/Merging: a. Why are you using teamwork server?)</t>
+  </si>
+  <si>
+    <t>Refer to question (How are you running your advanced queries within Open MBEE?).</t>
+  </si>
+  <si>
+    <t>Refer to the following questions (How does a user revert data to a prior version?) &amp; (We noticed that you couldn’t see the model history or revert to prior models via EMS (or at least it isn’t mentioned in the user manual). Is there a way of doing this in EMS?).</t>
+  </si>
+  <si>
+    <t>Redundant Question.</t>
+  </si>
+  <si>
+    <t>Still in development, far now just on the MD side with options. database queries has early version, will require coding at this time (in development); integration code with mathematical (Chris will demo).</t>
+  </si>
+  <si>
+    <t>When generating "DocGen 3" error messages/warning are displayed that do not appear to be correct. Furthermore, the errors/warning should not impact the XML file from being generated. Chris Delp request that we send the data file to JPL for evaluation.</t>
+  </si>
+  <si>
+    <t>Perform merge diff (specify a tag/different branch). Compare and pull change in.  Note: v2.2 in-work for the following projects: share, SysML, ems repo, web app, util, bae, doc gen; source pushed but no builds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPL is using teamwork server because not all information is stored in  MMS. In the interim teamwork server will be required until MMS (load partial models and/or the entire model) is completed. This task to be completed by end of 2016. </t>
+  </si>
+  <si>
+    <t>REST API. V2.2; will have M2 layer (MetaModelica/SysML). The View editor code/EMS repo test has examples. Chris Delp will provide project repo documentation (project wiki).</t>
   </si>
 </sst>
 </file>
@@ -109,14 +227,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +247,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,15 +301,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -169,8 +325,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,295 +656,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="43.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="12.77734375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G1" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>42173</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>42173</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>42195</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>42195</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>42173</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>42173</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>42173</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>42173</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F7" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>42209</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>42209</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>42215</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>42215</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>42215</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>42195</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>42215</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>42215</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>42209</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>42215</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>42215</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>42215</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>42174</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>42195</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>42215</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>42215</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G24">
+    <sortState ref="A2:G24">
+      <sortCondition ref="F1:F24"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:I14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F12:F23">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/boeing_technical_interchange/JPL Question Log.xlsx
+++ b/boeing_technical_interchange/JPL Question Log.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b0306797\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\BSM Shared\Large Trade Study Document\Vendor Info\Round 2 RFI\JPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6216" yWindow="0" windowWidth="9144" windowHeight="6036"/>
+    <workbookView xWindow="888" yWindow="0" windowWidth="11400" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$32</definedName>
     <definedName name="Status">Sheet1!$I$9:$I$10</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -93,15 +93,9 @@
     <t>How does a user revert data to a prior version?</t>
   </si>
   <si>
-    <t>Query Engine</t>
-  </si>
-  <si>
     <t>Added as an agenda item for 7/2 and invited Sandy</t>
   </si>
   <si>
-    <t>Why are you using teamwork server?</t>
-  </si>
-  <si>
     <t>We noticed that you couldn’t see the model history or revert to prior models via EMS (or at least it isn’t mentioned in the user manual). Is there a way of doing this in EMS?</t>
   </si>
   <si>
@@ -129,12 +123,6 @@
     <t>Change Management – Branching/Merging: a. Why are you using teamwork server?</t>
   </si>
   <si>
-    <t>Change Management – Branching/Merging: b. Per the user manual, it mentions that you have to perform the merge twice (once on EMS and another time on teamwork server). We see this as a potential problem and wonder if you have a best practice or a roadmap where you wouldn’t have to do the merge twice. Why not just allow model branches on EMS and get rid of teamwork server?</t>
-  </si>
-  <si>
-    <t>Change Management – Branching/Merging: c. We noticed that you couldn’t see the model history or revert to prior models via EMS (or at least it isn’t mentioned in the user manual). Is there a way of doing this in EMS or is that something you have to do in the teamwork server?</t>
-  </si>
-  <si>
     <t>How are you running your advanced queries within Open MBEE?</t>
   </si>
   <si>
@@ -168,36 +156,12 @@
     <t>Ignore, this will be removed.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>MD local generation. Greg E to investigate.</t>
   </si>
   <si>
     <t>Chris Delp</t>
   </si>
   <si>
-    <t>Send data file to JPL</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Refer to question (Change Management – Branching/Merging: a. Why are you using teamwork server?).</t>
-  </si>
-  <si>
-    <t>some data is not stored on MMS and vice-versa. Refer to question (Change Management – Branching/Merging: a. Why are you using teamwork server?)</t>
-  </si>
-  <si>
-    <t>Refer to question (How are you running your advanced queries within Open MBEE?).</t>
-  </si>
-  <si>
-    <t>Refer to the following questions (How does a user revert data to a prior version?) &amp; (We noticed that you couldn’t see the model history or revert to prior models via EMS (or at least it isn’t mentioned in the user manual). Is there a way of doing this in EMS?).</t>
-  </si>
-  <si>
-    <t>Redundant Question.</t>
-  </si>
-  <si>
     <t>Still in development, far now just on the MD side with options. database queries has early version, will require coding at this time (in development); integration code with mathematical (Chris will demo).</t>
   </si>
   <si>
@@ -211,13 +175,115 @@
   </si>
   <si>
     <t>REST API. V2.2; will have M2 layer (MetaModelica/SysML). The View editor code/EMS repo test has examples. Chris Delp will provide project repo documentation (project wiki).</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>couldn't reproduce</t>
+  </si>
+  <si>
+    <t>Plugin Library OCL clash</t>
+  </si>
+  <si>
+    <t>Brittany &amp; Greg G</t>
+  </si>
+  <si>
+    <t>Phantom Branches created in EMS</t>
+  </si>
+  <si>
+    <t>John H</t>
+  </si>
+  <si>
+    <t>Brittany, John, Greg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diff between Tags shows no difference </t>
+  </si>
+  <si>
+    <t>Document Template Modification</t>
+  </si>
+  <si>
+    <t>Greg E</t>
+  </si>
+  <si>
+    <t>v. 2.2 Doesn't Work</t>
+  </si>
+  <si>
+    <t>Greg G</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Adding FrontMatter data results in an empty xml file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When creating EMS tables not all font changes (color, background, size) are present in the xml file. </t>
+  </si>
+  <si>
+    <t>Does JPL submit patents as a group or as individuals?  If as a group, are the patents owned by Caltech?</t>
+  </si>
+  <si>
+    <t>Britany</t>
+  </si>
+  <si>
+    <t>Why did they use licensed no magic product instead of the open source papyrus</t>
+  </si>
+  <si>
+    <t>If we were to use their open source product to create products that we will sell, are we allowed to do this?</t>
+  </si>
+  <si>
+    <t>Interest in scheduling meeting with OSEE?</t>
+  </si>
+  <si>
+    <t>Query Engine error</t>
+  </si>
+  <si>
+    <t>Need to investigate the build file. Possible Version of dependant library that doesn’t include the method.</t>
+  </si>
+  <si>
+    <t>Charles and Greg looking into</t>
+  </si>
+  <si>
+    <t>Fixed in  version 2.2</t>
+  </si>
+  <si>
+    <t>Would be a code change in Java; possibly include in the View menu to chose orientation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greg: New a hook in the test XML to create that type of page.  </t>
+  </si>
+  <si>
+    <t>Looks like its writing to two projects at the same time..?  MDk full of errors; Greg G. emailed Chris D.  Ben is going to look into it</t>
+  </si>
+  <si>
+    <t>GregE/Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles is looking into this.  </t>
+  </si>
+  <si>
+    <t>Ben is going to look at it.  Outside table font color and bkgd changed but not font size in pdf.  Inside table no format changes came over in pdf</t>
+  </si>
+  <si>
+    <t>Ask Chris.  Suggest putting wording in root.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">papyrus not fully developed at the time of tool selection. </t>
+  </si>
+  <si>
+    <t>No Issue</t>
+  </si>
+  <si>
+    <t>There are patches available that would address this.  Does not work in v2.2. Ben noted it should work with JMS running.  Greg G going to investigate.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +298,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -278,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -312,15 +389,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -335,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,7 +483,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,462 +788,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="5" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="84.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="84.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>42173</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>42173</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>42195</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>42195</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>42173</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>42173</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>42173</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="17" t="s">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>42209</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>42209</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="11" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>42215</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>42215</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>42215</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>42215</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>42215</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>42215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>42174</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>42195</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="D18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>42215</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>42215</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>42195</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+    <row r="23" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>42173</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>42173</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="G24" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>42209</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>42209</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>42215</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>42215</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>42215</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>42195</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>42215</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>42215</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>42209</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>42215</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>42215</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
-        <v>42215</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>42174</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="11" t="s">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>42195</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>42215</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <v>42215</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11" t="s">
-        <v>50</v>
+      <c r="F27" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G24">
+  <autoFilter ref="A1:G32">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="In Work"/>
+        <filter val="New"/>
+        <filter val="Review"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G24">
       <sortCondition ref="F1:F24"/>
     </sortState>
@@ -1120,7 +1357,7 @@
     <sortCondition ref="A2:A14"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F12:F23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F12:F19">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
